--- a/3 Business Intelligence Fundamentals - Dhaval Sir/Text & Date Function.xlsx
+++ b/3 Business Intelligence Fundamentals - Dhaval Sir/Text & Date Function.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sem 5 Class Work\3 Business Intelligence Fundamentals - Dhaval Sir\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E5ACD31-A1FF-48ED-8717-3247280EF9D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AB92C6C-6E3C-4395-B82F-A5D1C919E684}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -99,9 +99,6 @@
     <t>LOWER()</t>
   </si>
   <si>
-    <t>Proper()</t>
-  </si>
-  <si>
     <t>Yuvaraj singh</t>
   </si>
   <si>
@@ -169,6 +166,9 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>PROPER()</t>
   </si>
 </sst>
 </file>
@@ -720,163 +720,163 @@
   </cellStyleXfs>
   <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1096,8 +1096,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1118,50 +1118,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="45.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="6"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="43"/>
     </row>
     <row r="2" spans="1:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="48">
+      <c r="B3" s="29">
         <v>6</v>
       </c>
-      <c r="C3" s="49"/>
-      <c r="D3" s="50" t="s">
+      <c r="C3" s="30"/>
+      <c r="D3" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="49" t="s">
+      <c r="E3" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="51"/>
+      <c r="F3" s="32"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="25">
+      <c r="B4" s="15">
         <v>2</v>
       </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="52" t="s">
+      <c r="C4" s="18"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="33" t="s">
         <v>3</v>
       </c>
       <c r="G4" s="1"/>
@@ -1169,31 +1169,31 @@
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="25"/>
-      <c r="C5" s="28" t="s">
+      <c r="B5" s="15"/>
+      <c r="C5" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="D5" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="28">
+      <c r="E5" s="18">
         <v>45</v>
       </c>
-      <c r="F5" s="52"/>
+      <c r="F5" s="33"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="28"/>
-      <c r="D6" s="32">
+      <c r="C6" s="18"/>
+      <c r="D6" s="21">
         <v>65</v>
       </c>
-      <c r="E6" s="28"/>
-      <c r="F6" s="52" t="s">
+      <c r="E6" s="18"/>
+      <c r="F6" s="33" t="s">
         <v>2</v>
       </c>
       <c r="G6" s="1"/>
@@ -1201,13 +1201,13 @@
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="25"/>
-      <c r="C7" s="28" t="s">
+      <c r="B7" s="15"/>
+      <c r="C7" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="32"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="52" t="s">
+      <c r="D7" s="21"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="33" t="s">
         <v>7</v>
       </c>
       <c r="G7" s="1"/>
@@ -1215,29 +1215,29 @@
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="25"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="32" t="s">
+      <c r="B8" s="15"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="28">
+      <c r="E8" s="18">
         <v>1083</v>
       </c>
-      <c r="F8" s="52"/>
+      <c r="F8" s="33"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="28"/>
-      <c r="D9" s="32" t="s">
+      <c r="C9" s="18"/>
+      <c r="D9" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="28"/>
-      <c r="F9" s="52" t="s">
+      <c r="E9" s="18"/>
+      <c r="F9" s="33" t="s">
         <v>1</v>
       </c>
       <c r="G9" s="1"/>
@@ -1245,15 +1245,15 @@
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="26"/>
-      <c r="C10" s="29">
+      <c r="B10" s="16"/>
+      <c r="C10" s="19">
         <v>90</v>
       </c>
-      <c r="D10" s="33"/>
-      <c r="E10" s="29" t="s">
+      <c r="D10" s="22"/>
+      <c r="E10" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="53"/>
+      <c r="F10" s="34"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -1279,16 +1279,16 @@
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="36" t="s">
+      <c r="B13" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="42" t="s">
+      <c r="C13" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="39">
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="26">
         <f>COUNT(B3:F10)</f>
         <v>6</v>
       </c>
@@ -1296,62 +1296,68 @@
       <c r="I13" s="1"/>
     </row>
     <row r="14" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="37" t="s">
+      <c r="B14" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="44" t="s">
+      <c r="C14" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="40">
-        <f>COUNTIF(B3:F10,B9)</f>
+      <c r="D14" s="48"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="27">
+        <f>COUNTIF(B3:F10,"$")</f>
         <v>4</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="37" t="s">
+      <c r="B15" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="44" t="s">
+      <c r="C15" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="40"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="27">
+        <f>COUNTIF(B3:F10,"")</f>
+        <v>20</v>
+      </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="37" t="s">
+      <c r="B16" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="44" t="s">
+      <c r="C16" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="40"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="27">
+        <f>COUNTA(B3:F10)</f>
+        <v>20</v>
+      </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
     <row r="17" spans="2:12" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="38" t="s">
+      <c r="B17" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="46" t="s">
+      <c r="C17" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="41">
-        <f>COUNTIF(B3:F10,B6)</f>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="28">
+        <f>COUNTIF(B3:F10,"+")</f>
         <v>3</v>
       </c>
       <c r="H17" s="1"/>
@@ -1359,25 +1365,25 @@
     </row>
     <row r="18" spans="2:12" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="19" spans="2:12" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="23"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="37"/>
     </row>
     <row r="20" spans="2:12" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="19" t="s">
+      <c r="C20" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="30" t="s">
+      <c r="D20" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E20" s="19" t="s">
-        <v>24</v>
+      <c r="E20" s="53" t="s">
+        <v>47</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -1387,18 +1393,18 @@
       <c r="L20" s="1"/>
     </row>
     <row r="21" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" s="27" t="str">
+      <c r="B21" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="17" t="str">
         <f>UPPER(B21)</f>
         <v>YUVARAJ SINGH</v>
       </c>
-      <c r="D21" s="31" t="str">
+      <c r="D21" s="20" t="str">
         <f>LOWER(B21)</f>
         <v>yuvaraj singh</v>
       </c>
-      <c r="E21" s="27" t="str">
+      <c r="E21" s="17" t="str">
         <f>PROPER(B21)</f>
         <v>Yuvaraj Singh</v>
       </c>
@@ -1408,18 +1414,18 @@
       <c r="I21" s="1"/>
     </row>
     <row r="22" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" s="28" t="str">
+      <c r="B22" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="18" t="str">
         <f t="shared" ref="C22:C28" si="0">UPPER(B22)</f>
         <v>ROBIN UTHAPPA</v>
       </c>
-      <c r="D22" s="32" t="str">
+      <c r="D22" s="21" t="str">
         <f t="shared" ref="D22:D28" si="1">LOWER(B22)</f>
         <v>robin uthappa</v>
       </c>
-      <c r="E22" s="28" t="str">
+      <c r="E22" s="18" t="str">
         <f t="shared" ref="E22:E28" si="2">PROPER(B22)</f>
         <v>Robin Uthappa</v>
       </c>
@@ -1429,18 +1435,18 @@
       <c r="I22" s="1"/>
     </row>
     <row r="23" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="C23" s="28" t="str">
+      <c r="B23" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="18" t="str">
         <f t="shared" si="0"/>
         <v>RAVINDRA JADEJA</v>
       </c>
-      <c r="D23" s="32" t="str">
+      <c r="D23" s="21" t="str">
         <f t="shared" si="1"/>
         <v>ravindra jadeja</v>
       </c>
-      <c r="E23" s="28" t="str">
+      <c r="E23" s="18" t="str">
         <f t="shared" si="2"/>
         <v>Ravindra Jadeja</v>
       </c>
@@ -1450,18 +1456,18 @@
       <c r="I23" s="1"/>
     </row>
     <row r="24" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="C24" s="28" t="str">
+      <c r="B24" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="18" t="str">
         <f t="shared" si="0"/>
         <v>SURESH RAINA</v>
       </c>
-      <c r="D24" s="32" t="str">
+      <c r="D24" s="21" t="str">
         <f t="shared" si="1"/>
         <v>suresh raina</v>
       </c>
-      <c r="E24" s="28" t="str">
+      <c r="E24" s="18" t="str">
         <f t="shared" si="2"/>
         <v>Suresh Raina</v>
       </c>
@@ -1471,18 +1477,18 @@
       <c r="I24" s="1"/>
     </row>
     <row r="25" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25" s="28" t="str">
+      <c r="B25" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="18" t="str">
         <f t="shared" si="0"/>
         <v>ROHIT SHARMA</v>
       </c>
-      <c r="D25" s="32" t="str">
+      <c r="D25" s="21" t="str">
         <f t="shared" si="1"/>
         <v>rohit sharma</v>
       </c>
-      <c r="E25" s="28" t="str">
+      <c r="E25" s="18" t="str">
         <f t="shared" si="2"/>
         <v>Rohit Sharma</v>
       </c>
@@ -1492,41 +1498,41 @@
       <c r="I25" s="1"/>
     </row>
     <row r="26" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" s="28" t="str">
+      <c r="B26" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="18" t="str">
         <f t="shared" si="0"/>
         <v>VIRAT KHOLI</v>
       </c>
-      <c r="D26" s="32" t="str">
+      <c r="D26" s="21" t="str">
         <f t="shared" si="1"/>
         <v>virat kholi</v>
       </c>
-      <c r="E26" s="28" t="str">
+      <c r="E26" s="18" t="str">
         <f t="shared" si="2"/>
         <v>Virat Kholi</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
     <row r="27" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="C27" s="28" t="str">
+      <c r="B27" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" s="18" t="str">
         <f t="shared" si="0"/>
         <v>RAHUL DRAVID</v>
       </c>
-      <c r="D27" s="32" t="str">
+      <c r="D27" s="21" t="str">
         <f t="shared" si="1"/>
         <v>rahul dravid</v>
       </c>
-      <c r="E27" s="28" t="str">
+      <c r="E27" s="18" t="str">
         <f t="shared" si="2"/>
         <v>Rahul Dravid</v>
       </c>
@@ -1536,18 +1542,18 @@
       <c r="I27" s="1"/>
     </row>
     <row r="28" spans="2:12" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="C28" s="29" t="str">
+      <c r="B28" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" s="19" t="str">
         <f t="shared" si="0"/>
         <v>SHREYAS IYYER</v>
       </c>
-      <c r="D28" s="33" t="str">
+      <c r="D28" s="22" t="str">
         <f t="shared" si="1"/>
         <v>shreyas iyyer</v>
       </c>
-      <c r="E28" s="29" t="str">
+      <c r="E28" s="19" t="str">
         <f t="shared" si="2"/>
         <v>Shreyas Iyyer</v>
       </c>
@@ -1558,128 +1564,128 @@
     </row>
     <row r="29" spans="2:12" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="30" spans="2:12" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30" s="39"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="39"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="40"/>
+    </row>
+    <row r="31" spans="2:12" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="9"/>
-    </row>
-    <row r="31" spans="2:12" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="18" t="s">
+      <c r="C31" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C31" s="18" t="s">
+      <c r="D31" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D31" s="18" t="s">
+      <c r="E31" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="E31" s="19" t="s">
+      <c r="F31" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F31" s="20" t="s">
+      <c r="G31" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="G31" s="20" t="s">
+      <c r="H31" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="H31" s="20" t="s">
+    </row>
+    <row r="32" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="6" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="32" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="10" t="s">
+      <c r="C32" s="10">
+        <v>43873</v>
+      </c>
+      <c r="D32" s="6">
+        <v>120</v>
+      </c>
+      <c r="E32" s="12"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+    </row>
+    <row r="33" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C32" s="14">
-        <v>43873</v>
-      </c>
-      <c r="D32" s="10">
-        <v>120</v>
-      </c>
-      <c r="E32" s="16"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
-    </row>
-    <row r="33" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="10" t="s">
+      <c r="C33" s="10">
+        <v>44269</v>
+      </c>
+      <c r="D33" s="6">
+        <v>70</v>
+      </c>
+      <c r="E33" s="12"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+    </row>
+    <row r="34" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C33" s="14">
-        <v>44269</v>
-      </c>
-      <c r="D33" s="10">
-        <v>70</v>
-      </c>
-      <c r="E33" s="16"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
-    </row>
-    <row r="34" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="10" t="s">
+      <c r="C34" s="10">
+        <v>44341</v>
+      </c>
+      <c r="D34" s="6">
+        <v>123</v>
+      </c>
+      <c r="E34" s="12"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+    </row>
+    <row r="35" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C34" s="14">
-        <v>44341</v>
-      </c>
-      <c r="D34" s="10">
-        <v>123</v>
-      </c>
-      <c r="E34" s="16"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11"/>
-    </row>
-    <row r="35" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="10" t="s">
+      <c r="C35" s="10">
+        <v>44418</v>
+      </c>
+      <c r="D35" s="6">
+        <v>90</v>
+      </c>
+      <c r="E35" s="12"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+    </row>
+    <row r="36" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C35" s="14">
-        <v>44418</v>
-      </c>
-      <c r="D35" s="10">
-        <v>90</v>
-      </c>
-      <c r="E35" s="16"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="11"/>
-    </row>
-    <row r="36" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="10" t="s">
+      <c r="C36" s="10">
+        <v>44571</v>
+      </c>
+      <c r="D36" s="6">
+        <v>89</v>
+      </c>
+      <c r="E36" s="12"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+    </row>
+    <row r="37" spans="2:8" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C36" s="14">
-        <v>44571</v>
-      </c>
-      <c r="D36" s="10">
-        <v>89</v>
-      </c>
-      <c r="E36" s="16"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="11"/>
-    </row>
-    <row r="37" spans="2:8" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="C37" s="15">
+      <c r="C37" s="11">
         <v>44594</v>
       </c>
-      <c r="D37" s="12">
+      <c r="D37" s="8">
         <v>250</v>
       </c>
-      <c r="E37" s="17"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
-      <c r="H37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
     </row>
     <row r="38" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="39" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
